--- a/i2up/excel/template.xlsx
+++ b/i2up/excel/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95926740-0AC6-1448-AB30-D1B1B433E214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0836467F-3937-8A40-A357-AF7066307E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4820" windowWidth="28040" windowHeight="15180" activeTab="3" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15180" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="msq" sheetId="2" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1180,6 +1180,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1206,9 +1224,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1526,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7696D2-C4F4-2248-BB46-E6E5934265D5}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1598,7 +1619,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1609,7 +1630,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1674,7 +1695,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1709,7 +1730,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1720,7 +1741,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1742,7 +1763,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1764,7 +1785,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1809,10 +1830,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1820,7 +1841,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1875,10 +1896,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4579,7 +4600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A68D5-58FD-DA42-BFF7-99C100BAE536}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/i2up/excel/template.xlsx
+++ b/i2up/excel/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0836467F-3937-8A40-A357-AF7066307E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C83CD6-987B-0342-83E2-0C0DC87E2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15180" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
+    <workbookView xWindow="680" yWindow="880" windowWidth="28040" windowHeight="15180" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="msq" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="376">
   <si>
     <t>}</t>
   </si>
@@ -1163,6 +1163,9 @@
   </si>
   <si>
     <t>"batch_advanced_settings":</t>
+  </si>
+  <si>
+    <t>"pass"</t>
   </si>
 </sst>
 </file>
@@ -1547,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7696D2-C4F4-2248-BB46-E6E5934265D5}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1600,7 +1603,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1612,7 +1615,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>375</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -2800,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08169F-0E4C-E74B-9E8E-367D0426A774}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2897,7 +2900,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3051,7 +3054,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3081,7 +3084,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3125,7 +3128,7 @@
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3136,7 +3139,7 @@
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3202,7 +3205,7 @@
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3716,7 +3719,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -4110,7 +4113,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -4143,7 +4146,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -4187,7 +4190,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -4220,7 +4223,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -4261,7 +4264,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -4502,7 +4505,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -4546,7 +4549,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -4568,7 +4571,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -4600,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A68D5-58FD-DA42-BFF7-99C100BAE536}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/i2up/excel/template.xlsx
+++ b/i2up/excel/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C83CD6-987B-0342-83E2-0C0DC87E2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCC399B-DEE9-0F49-AA8F-930BBCD57DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="880" windowWidth="28040" windowHeight="15180" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
+    <workbookView xWindow="1340" yWindow="500" windowWidth="28040" windowHeight="15180" activeTab="2" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="msq" sheetId="2" r:id="rId1"/>
@@ -1550,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7696D2-C4F4-2248-BB46-E6E5934265D5}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1920,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8AB31C-1058-4A4E-81E1-10A19260E2B0}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2803,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08169F-0E4C-E74B-9E8E-367D0426A774}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3752,7 +3752,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -3815,7 +3815,7 @@
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -3914,7 +3914,7 @@
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -4596,6 +4596,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4603,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A68D5-58FD-DA42-BFF7-99C100BAE536}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/i2up/excel/template.xlsx
+++ b/i2up/excel/template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCC399B-DEE9-0F49-AA8F-930BBCD57DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E330BD-CCF0-014D-8E0A-BB1C96F71905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="500" windowWidth="28040" windowHeight="15180" activeTab="2" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15180" activeTab="3" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="msq" sheetId="2" r:id="rId1"/>
-    <sheet name="kfk" sheetId="3" r:id="rId2"/>
-    <sheet name="msq_msq" sheetId="4" r:id="rId3"/>
-    <sheet name="msq_kfk" sheetId="5" r:id="rId4"/>
+    <sheet name="msq_node" sheetId="2" r:id="rId1"/>
+    <sheet name="kfk_node" sheetId="3" r:id="rId2"/>
+    <sheet name="msq_msq_rule" sheetId="4" r:id="rId3"/>
+    <sheet name="msq_kfk_rule" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1921,7 +1921,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2803,7 +2803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08169F-0E4C-E74B-9E8E-367D0426A774}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
@@ -4604,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A68D5-58FD-DA42-BFF7-99C100BAE536}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/i2up/excel/template.xlsx
+++ b/i2up/excel/template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E330BD-CCF0-014D-8E0A-BB1C96F71905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1A8AB-D6AD-3448-AD15-6C3E1719A026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15180" activeTab="3" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
+    <workbookView xWindow="-28240" yWindow="660" windowWidth="28040" windowHeight="15180" activeTab="1" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="msq_node" sheetId="2" r:id="rId1"/>
-    <sheet name="kfk_node" sheetId="3" r:id="rId2"/>
-    <sheet name="msq_msq_rule" sheetId="4" r:id="rId3"/>
-    <sheet name="msq_kfk_rule" sheetId="5" r:id="rId4"/>
+    <sheet name="hb_node" sheetId="6" r:id="rId2"/>
+    <sheet name="kfk_node" sheetId="3" r:id="rId3"/>
+    <sheet name="msq_msq_rule" sheetId="4" r:id="rId4"/>
+    <sheet name="msq_kfk_rule" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="378">
   <si>
     <t>}</t>
   </si>
@@ -1166,6 +1167,12 @@
   </si>
   <si>
     <t>"pass"</t>
+  </si>
+  <si>
+    <t>8020</t>
+  </si>
+  <si>
+    <t>"hbase"</t>
   </si>
 </sst>
 </file>
@@ -1550,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7696D2-C4F4-2248-BB46-E6E5934265D5}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1917,10 +1924,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF4538-1A92-1940-92FF-2CF40E132735}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8AB31C-1058-4A4E-81E1-10A19260E2B0}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
@@ -2799,7 +3044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08169F-0E4C-E74B-9E8E-367D0426A774}">
   <dimension ref="A1:E191"/>
   <sheetViews>
@@ -4600,11 +4845,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A68D5-58FD-DA42-BFF7-99C100BAE536}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+    <sheetView topLeftCell="A237" workbookViewId="0">
       <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>

--- a/i2up/excel/template.xlsx
+++ b/i2up/excel/template.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1A8AB-D6AD-3448-AD15-6C3E1719A026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90959F3-07CF-A84E-A610-E030085D6AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28240" yWindow="660" windowWidth="28040" windowHeight="15180" activeTab="1" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
+    <workbookView xWindow="-35440" yWindow="780" windowWidth="28040" windowHeight="15180" activeTab="4" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="msq_node" sheetId="2" r:id="rId1"/>
     <sheet name="hb_node" sheetId="6" r:id="rId2"/>
     <sheet name="kfk_node" sheetId="3" r:id="rId3"/>
     <sheet name="msq_msq_rule" sheetId="4" r:id="rId4"/>
-    <sheet name="msq_kfk_rule" sheetId="5" r:id="rId5"/>
+    <sheet name="hb_hb_rule" sheetId="7" r:id="rId5"/>
+    <sheet name="msq_kfk_rule" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="381">
   <si>
     <t>}</t>
   </si>
@@ -1173,6 +1174,15 @@
   </si>
   <si>
     <t>"hbase"</t>
+  </si>
+  <si>
+    <t>"toirp"</t>
+  </si>
+  <si>
+    <t>"info":</t>
+  </si>
+  <si>
+    <t>"userna":</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF4538-1A92-1940-92FF-2CF40E132735}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -3049,7 +3059,7 @@
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4846,10 +4856,1111 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED00E1D-978D-E64D-91BC-ED57A8B84DCC}">
+  <dimension ref="A1:E108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A68D5-58FD-DA42-BFF7-99C100BAE536}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
+    <sheetView topLeftCell="A235" workbookViewId="0">
       <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>

--- a/i2up/excel/template.xlsx
+++ b/i2up/excel/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90959F3-07CF-A84E-A610-E030085D6AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B2E7B8-967D-9641-8D7D-BCBBE6FF8ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35440" yWindow="780" windowWidth="28040" windowHeight="15180" activeTab="4" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
+    <workbookView xWindow="780" yWindow="680" windowWidth="25600" windowHeight="13420" activeTab="6" xr2:uid="{5EDD2148-16E0-F244-A20D-E769F585BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="msq_node" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="msq_msq_rule" sheetId="4" r:id="rId4"/>
     <sheet name="hb_hb_rule" sheetId="7" r:id="rId5"/>
     <sheet name="msq_kfk_rule" sheetId="5" r:id="rId6"/>
+    <sheet name="offline_rule" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="429">
   <si>
     <t>}</t>
   </si>
@@ -1183,13 +1184,157 @@
   </si>
   <si>
     <t>"userna":</t>
+  </si>
+  <si>
+    <t>"advanced_settings":</t>
+  </si>
+  <si>
+    <t>"exclude_table_by_features":</t>
+  </si>
+  <si>
+    <t>"PK":</t>
+  </si>
+  <si>
+    <t>"advanced_table_map":</t>
+  </si>
+  <si>
+    <t>"one_task":</t>
+  </si>
+  <si>
+    <t>"immediate"</t>
+  </si>
+  <si>
+    <t>"db_user_map":</t>
+  </si>
+  <si>
+    <t>"format":</t>
+  </si>
+  <si>
+    <t>"byte_encode":</t>
+  </si>
+  <si>
+    <t>"UTF-8"</t>
+  </si>
+  <si>
+    <t>"date_format":</t>
+  </si>
+  <si>
+    <t>"yyyyMMdd"</t>
+  </si>
+  <si>
+    <t>"datetag":</t>
+  </si>
+  <si>
+    <t>"20240927"</t>
+  </si>
+  <si>
+    <t>"datetime_format":</t>
+  </si>
+  <si>
+    <t>"yyyyMMddHHmmss"</t>
+  </si>
+  <si>
+    <t>"delimiter":</t>
+  </si>
+  <si>
+    <t>","</t>
+  </si>
+  <si>
+    <t>"escape":</t>
+  </si>
+  <si>
+    <t>"force_quote":</t>
+  </si>
+  <si>
+    <t>"header":</t>
+  </si>
+  <si>
+    <t>"null":</t>
+  </si>
+  <si>
+    <t>"quote":</t>
+  </si>
+  <si>
+    <t>"`"</t>
+  </si>
+  <si>
+    <t>"time_format":</t>
+  </si>
+  <si>
+    <t>"HHmmss"</t>
+  </si>
+  <si>
+    <t>"timestamp_format":</t>
+  </si>
+  <si>
+    <t>"yyyyMMddHHmmss.SSS"</t>
+  </si>
+  <si>
+    <t>"source.to.target.processor.plugin"</t>
+  </si>
+  <si>
+    <t>"map_type_list":</t>
+  </si>
+  <si>
+    <t>"user"</t>
+  </si>
+  <si>
+    <t>"one_time":</t>
+  </si>
+  <si>
+    <t>"policies":</t>
+  </si>
+  <si>
+    <t>"policy_type":</t>
+  </si>
+  <si>
+    <t>"one_time"</t>
+  </si>
+  <si>
+    <t>"rule_name":</t>
+  </si>
+  <si>
+    <t>"separator":</t>
+  </si>
+  <si>
+    <t>"src_file_path":</t>
+  </si>
+  <si>
+    <t>"src_node_uuid":</t>
+  </si>
+  <si>
+    <t>"table_map":</t>
+  </si>
+  <si>
+    <t>"tgt_file_path":</t>
+  </si>
+  <si>
+    <t>"time_policy":</t>
+  </si>
+  <si>
+    <t>"virtual_table":</t>
+  </si>
+  <si>
+    <t>[],</t>
+  </si>
+  <si>
+    <t>"\\"</t>
+  </si>
+  <si>
+    <t>"\\N"</t>
+  </si>
+  <si>
+    <t>"{\"classname\":\"org.example.dataconvert.ExampleSourceToTargetProcessorPlugin\",\"config\":{\"organizationCode\":[{\"col\":\"TEST_VALUE\",\"orgmap\":{\"0.32\":\"0.6000000\"}}]}}"</t>
+  </si>
+  <si>
+    <t>"{\"classname\":\"org.example.dataconvert.ExampleSourceToTargetProcessorPlugin\",\"config\":{\"organizationCode\":[{\"col\":\"TEST_VALUE\",\"orgmap\":{\"0.32\":\"0.2000000\"}}]}}"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1222,6 +1367,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1244,12 +1396,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3058,7 +3211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08169F-0E4C-E74B-9E8E-367D0426A774}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
@@ -4859,8 +5012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED00E1D-978D-E64D-91BC-ED57A8B84DCC}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5960,7 +6113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A68D5-58FD-DA42-BFF7-99C100BAE536}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
@@ -8511,4 +8664,632 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B89952-E868-874B-86F8-D898DFB6F84A}">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="160.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C28" t="s">
+        <v>426</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>